--- a/src/app/projects/hyponatremia/ram_db/db.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Po-Chun Wu\Desktop\home\projects\SLEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C73095-4188-4136-BB73-0BF40F51A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E24950-0970-4033-8D28-EEAFD992CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t>Main</t>
   </si>
@@ -414,6 +414,93 @@
   <si>
     <t>糖化血色素</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>問診一</t>
+  </si>
+  <si>
+    <t>問診二</t>
+  </si>
+  <si>
+    <t>問診五</t>
+  </si>
+  <si>
+    <t>問診四</t>
+  </si>
+  <si>
+    <t>問診三</t>
+  </si>
+  <si>
+    <t>回覆一</t>
+  </si>
+  <si>
+    <t>回覆二</t>
+  </si>
+  <si>
+    <t>回覆三</t>
+  </si>
+  <si>
+    <t>回覆四</t>
+  </si>
+  <si>
+    <t>回覆五</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>男/女</t>
+  </si>
+  <si>
+    <t>數字年齡</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>IMAGES</t>
+  </si>
+  <si>
+    <t>old_man1.png</t>
   </si>
 </sst>
 </file>
@@ -834,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -848,18 +935,22 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="20.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="20.1640625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="20.1640625" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,39 +970,51 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -926,39 +1029,51 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>96</v>
@@ -973,39 +1088,51 @@
         <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>97</v>
@@ -1020,39 +1147,51 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -1067,39 +1206,51 @@
         <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>98</v>
@@ -1113,34 +1264,46 @@
       <c r="F6" t="s">
         <v>47</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
       <c r="I6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>53</v>
@@ -1148,239 +1311,269 @@
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16" thickBot="1">
-      <c r="A9" s="2" t="s">
+      <c r="M10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16" thickBot="1">
+      <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16" thickBot="1">
-      <c r="A10" s="2" t="s">
+      <c r="M11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" thickBot="1">
+      <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="M12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="I12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="I13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="I14" s="2" t="s">
+      <c r="S13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J14" t="s">
+      <c r="N14" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="I15" s="4" t="s">
+    <row r="15" spans="1:19">
+      <c r="M15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="I16" s="4" t="s">
+    <row r="16" spans="1:19">
+      <c r="M16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="9:10">
-      <c r="I17" s="2" t="s">
+    <row r="17" spans="13:14">
+      <c r="M17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J17" t="s">
+      <c r="N17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="9:10">
-      <c r="I18" s="2" t="s">
+    <row r="18" spans="13:14">
+      <c r="M18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J18" t="s">
+      <c r="N18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="9:10">
-      <c r="I19" s="4" t="s">
+    <row r="19" spans="13:14">
+      <c r="M19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="9:10">
-      <c r="I20" s="2" t="s">
+    <row r="20" spans="13:14">
+      <c r="M20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="9:10">
-      <c r="I21" s="2" t="s">
+    <row r="21" spans="13:14">
+      <c r="M21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J21" t="s">
+      <c r="N21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="9:10">
-      <c r="I22" s="2" t="s">
+    <row r="22" spans="13:14">
+      <c r="M22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J22" t="s">
+      <c r="N22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="9:10">
-      <c r="I23" s="2" t="s">
+    <row r="23" spans="13:14">
+      <c r="M23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J23" t="s">
+      <c r="N23" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{9F3EA36F-ECF7-4391-906F-D084B6EF9249}">
-      <formula1>$O$2:$O$9</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{9F3EA36F-ECF7-4391-906F-D084B6EF9249}">
+      <formula1>$S$2:$S$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{F7685500-FE1A-4318-924E-DE224B6275B6}">
+      <formula1>$S$12:$S$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:F2 A14:I14 A13 C13:J13 A11:J12 A10 D10:J10 A19 A15 C15:H15 A16 C16:H16 A17 C17:H17 A18 C18:H18 C19:H19 A8:B9 D8:J9 A5:F5 A4:B4 A3:B3 D3:E3 D4:F4 A7:J7 A6:B6 D6:J6 A1:F1 H1:J1 H3:J3 H5:J5 H2:J2 H4:J4" numberStoredAsText="1"/>
+    <ignoredError sqref="K14:M14 A15:A19 K15:L19 C5:F5 D3:E3 D4:F4 K6:N13 A1:F1 L1:N5 D6:F6 C7:F7 C15:F19 D8:F10 C12:F12 C13:F13 C14:F14 C2:F2 C11:F11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/app/projects/hyponatremia/ram_db/db.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db.xlsx
@@ -475,10 +475,10 @@
         <v>既往病史</v>
       </c>
       <c r="E2" t="str">
-        <v>VS</v>
+        <v>Inquiry</v>
       </c>
       <c r="F2" t="str">
-        <v>生命徵象及意識狀態</v>
+        <v>問診</v>
       </c>
       <c r="G2" t="str">
         <v>Q1</v>
@@ -487,7 +487,7 @@
         <v>問診一</v>
       </c>
       <c r="I2" t="str">
-        <v>A1</v>
+        <v>Q1</v>
       </c>
       <c r="J2" t="str">
         <v>回覆一</v>
@@ -546,7 +546,7 @@
         <v>問診二</v>
       </c>
       <c r="I3" t="str">
-        <v>A2</v>
+        <v>Q2</v>
       </c>
       <c r="J3" t="str">
         <v>回覆二</v>
@@ -605,7 +605,7 @@
         <v>問診三</v>
       </c>
       <c r="I4" t="str">
-        <v>A3</v>
+        <v>Q3</v>
       </c>
       <c r="J4" t="str">
         <v>回覆三</v>
@@ -664,7 +664,7 @@
         <v>問診四</v>
       </c>
       <c r="I5" t="str">
-        <v>A4</v>
+        <v>Q4</v>
       </c>
       <c r="J5" t="str">
         <v>回覆四</v>
@@ -723,7 +723,7 @@
         <v>問診五</v>
       </c>
       <c r="I6" t="str">
-        <v>A5</v>
+        <v>Q5</v>
       </c>
       <c r="J6" t="str">
         <v>回覆五</v>

--- a/src/app/projects/hyponatremia/ram_db/db.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db.xlsx
@@ -528,7 +528,7 @@
         <v>男/女</v>
       </c>
       <c r="C3" t="str">
-        <v>Family History</v>
+        <v>Family</v>
       </c>
       <c r="D3" t="str">
         <v>家族病史</v>
@@ -587,7 +587,7 @@
         <v>病人主訴</v>
       </c>
       <c r="C4" t="str">
-        <v>Travel History</v>
+        <v>Travel</v>
       </c>
       <c r="D4" t="str">
         <v>旅遊史</v>

--- a/src/app/projects/hyponatremia/ram_db/db.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Case1" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -925,7 +926,7 @@
         <v>Image</v>
       </c>
       <c r="B14" t="str">
-        <v>old_man1.png</v>
+        <v>請選擇</v>
       </c>
       <c r="M14" t="str">
         <v>TSH</v>
@@ -941,6 +942,12 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v>Weight</v>
+      </c>
+      <c r="B15" t="str">
+        <v>60</v>
+      </c>
       <c r="M15" t="str">
         <v>T3</v>
       </c>
@@ -1017,4 +1024,648 @@
     <ignoredError numberStoredAsText="1" sqref="A1:S23"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Main</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="C1" t="str">
+        <v>MedHistory</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="E1" t="str">
+        <v>PE</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Questions</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Answers</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Radiology</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Blood</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Urine</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>ABG</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="S1" t="str">
+        <v>ANSWER</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>Age</v>
+      </c>
+      <c r="B2" t="str">
+        <v>62</v>
+      </c>
+      <c r="C2" t="str">
+        <v>PMH</v>
+      </c>
+      <c r="D2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Underlying disease: Hypertension, Coronary heart disease and Gout with regular medication control for over 10 years.
+Past history: Hepatitis B discovered 10 years ago treated with medication but no follow-up.
+Surgical history:
+99/10 月口咽腫瘤 s/p 化療 3 次及電療 38 次，放置人工血管(已移除)
+一年多前確診呼吸中止症，沒有用藥 (新光)
+105/2/24 左耳後方有膿腫 s/p (雙和)
+110/06心導管 (雙和) Bokey 1# (自行停藥一個月)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Inquiry</v>
+      </c>
+      <c r="F2" t="str">
+        <v>問診</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Q1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>問診一</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Q1</v>
+      </c>
+      <c r="J2" t="str">
+        <v>回覆一</v>
+      </c>
+      <c r="K2" t="str">
+        <v>ChestCT</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Chest Xray and CT</v>
+      </c>
+      <c r="M2" t="str">
+        <v>RBC</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Density</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>PH</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S2" t="str">
+        <v>請選擇</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="B3" t="str">
+        <v>男</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Family</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Inspection</v>
+      </c>
+      <c r="F3" t="str">
+        <v>視診</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="H3" t="str">
+        <v>問診二</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="J3" t="str">
+        <v>回覆二</v>
+      </c>
+      <c r="K3" t="str">
+        <v>AbdSono</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="M3" t="str">
+        <v>WBC</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Color</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>PCO2</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S3" t="str">
+        <v>CHF</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CC</v>
+      </c>
+      <c r="B4" t="str">
+        <v>疲倦、下背痛</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Auscultation</v>
+      </c>
+      <c r="F4" t="str">
+        <v>聽診</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="H4" t="str">
+        <v>問診三</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>回覆三</v>
+      </c>
+      <c r="K4" t="str">
+        <v>ThySono</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Platelet</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="O4" t="str">
+        <v>PH</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>PO2</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S4" t="str">
+        <v>RO</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>GCS</v>
+      </c>
+      <c r="B5" t="str">
+        <v>15</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Allergy</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Percussion</v>
+      </c>
+      <c r="F5" t="str">
+        <v>扣診</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="H5" t="str">
+        <v>問診四</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="J5" t="str">
+        <v>回覆四</v>
+      </c>
+      <c r="K5" t="str">
+        <v>HeadCT</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Na</v>
+      </c>
+      <c r="N5" t="str">
+        <v>112</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Glucose</v>
+      </c>
+      <c r="P5" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>SO2</v>
+      </c>
+      <c r="R5" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S5" t="str">
+        <v>PP</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Respiration</v>
+      </c>
+      <c r="B6" t="str">
+        <v>18</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Medications</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Hypertension, Coronary heart disease and gout medication</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Palpation</v>
+      </c>
+      <c r="F6" t="str">
+        <v>觸診</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="H6" t="str">
+        <v>問診五</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="J6" t="str">
+        <v>回覆五</v>
+      </c>
+      <c r="M6" t="str">
+        <v>K</v>
+      </c>
+      <c r="N6" t="str">
+        <v>5.7</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Protein</v>
+      </c>
+      <c r="P6" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>HCO3</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Cirhosis</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Temperature</v>
+      </c>
+      <c r="B7" t="str">
+        <v>36.7</v>
+      </c>
+      <c r="C7" t="str">
+        <v>LQQOPERA</v>
+      </c>
+      <c r="D7" t="str">
+        <v>LQQOPERA</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Cl</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="O7" t="str">
+        <v>OB</v>
+      </c>
+      <c r="P7" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>BE</v>
+      </c>
+      <c r="R7" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S7" t="str">
+        <v>SIADH</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Heartbeat</v>
+      </c>
+      <c r="B8" t="str">
+        <v>78</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Mg</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="O8" t="str">
+        <v>RBC</v>
+      </c>
+      <c r="P8" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S8" t="str">
+        <v>Endocrine</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Pressure</v>
+      </c>
+      <c r="B9" t="str">
+        <v>177/95</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Ca</v>
+      </c>
+      <c r="N9" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="O9" t="str">
+        <v>WBC</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Nil</v>
+      </c>
+      <c r="S9" t="str">
+        <v>Hypovolemia</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>IndexH</v>
+      </c>
+      <c r="B10" t="str">
+        <v>145</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Osmolarity</v>
+      </c>
+      <c r="N10" t="str">
+        <v>248</v>
+      </c>
+      <c r="O10" t="str">
+        <v>Na</v>
+      </c>
+      <c r="P10" t="str">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>IndexL</v>
+      </c>
+      <c r="B11" t="str">
+        <v>136</v>
+      </c>
+      <c r="M11" t="str">
+        <v>BUN</v>
+      </c>
+      <c r="N11" t="str">
+        <v>36</v>
+      </c>
+      <c r="O11" t="str">
+        <v>K</v>
+      </c>
+      <c r="P11" t="str">
+        <v>17.5</v>
+      </c>
+      <c r="S11" t="str">
+        <v>IMAGES</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Answer</v>
+      </c>
+      <c r="B12" t="str">
+        <v>SIADH</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Creatinine</v>
+      </c>
+      <c r="N12" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="O12" t="str">
+        <v>Creatinine</v>
+      </c>
+      <c r="P12" t="str">
+        <v>24.2</v>
+      </c>
+      <c r="S12" t="str">
+        <v>請選擇</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Detailed</v>
+      </c>
+      <c r="B13" t="str">
+        <v>詳解</v>
+      </c>
+      <c r="M13" t="str">
+        <v>EGFR</v>
+      </c>
+      <c r="N13" t="str">
+        <v>49.5</v>
+      </c>
+      <c r="O13" t="str">
+        <v>Osmolarity</v>
+      </c>
+      <c r="P13" t="str">
+        <v>237</v>
+      </c>
+      <c r="S13" t="str">
+        <v>old_man1.png</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Image</v>
+      </c>
+      <c r="B14" t="str">
+        <v>old_man1.png</v>
+      </c>
+      <c r="M14" t="str">
+        <v>TSH</v>
+      </c>
+      <c r="N14" t="str">
+        <v>0.907</v>
+      </c>
+      <c r="O14" t="str">
+        <v>Gravity</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Weight</v>
+      </c>
+      <c r="B15" t="str">
+        <v>60</v>
+      </c>
+      <c r="M15" t="str">
+        <v>T3</v>
+      </c>
+      <c r="N15" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="str">
+        <v>FREET4</v>
+      </c>
+      <c r="N16" t="str">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" t="str">
+        <v>ACTH</v>
+      </c>
+      <c r="N17" t="str">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="M18" t="str">
+        <v>GOT</v>
+      </c>
+      <c r="N18" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="M19" t="str">
+        <v>GPT</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="M20" t="str">
+        <v>Protein</v>
+      </c>
+      <c r="N20" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="M21" t="str">
+        <v>Sugar</v>
+      </c>
+      <c r="N21" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="M22" t="str">
+        <v>TBIL</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="M23" t="str">
+        <v>HBA1C</v>
+      </c>
+      <c r="N23" t="str">
+        <v>Nil</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="M24" t="str">
+        <v>UricAcid</v>
+      </c>
+      <c r="N24" t="str">
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S24"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/src/app/projects/hyponatremia/ram_db/db.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,72 +417,78 @@
         <v>Values</v>
       </c>
       <c r="E1" t="str">
-        <v>PE</v>
+        <v>Examination</v>
       </c>
       <c r="F1" t="str">
         <v>Values</v>
       </c>
       <c r="G1" t="str">
-        <v>Inspection</v>
+        <v>PE</v>
       </c>
       <c r="H1" t="str">
         <v>Values</v>
       </c>
       <c r="I1" t="str">
-        <v>Auscultation</v>
+        <v>Inspection</v>
       </c>
       <c r="J1" t="str">
         <v>Values</v>
       </c>
       <c r="K1" t="str">
-        <v>Percussion</v>
+        <v>Auscultation</v>
       </c>
       <c r="L1" t="str">
         <v>Values</v>
       </c>
       <c r="M1" t="str">
-        <v>Palpation</v>
+        <v>Percussion</v>
       </c>
       <c r="N1" t="str">
         <v>Values</v>
       </c>
       <c r="O1" t="str">
-        <v>Radiology</v>
+        <v>Palpation</v>
       </c>
       <c r="P1" t="str">
         <v>Values</v>
       </c>
       <c r="Q1" t="str">
-        <v>Blood</v>
+        <v>Radiology</v>
       </c>
       <c r="R1" t="str">
         <v>Values</v>
       </c>
       <c r="S1" t="str">
-        <v>Urine</v>
+        <v>Blood</v>
       </c>
       <c r="T1" t="str">
         <v>Values</v>
       </c>
       <c r="U1" t="str">
-        <v>ABG</v>
+        <v>Urine</v>
       </c>
       <c r="V1" t="str">
         <v>Values</v>
       </c>
       <c r="W1" t="str">
-        <v>Questions</v>
+        <v>ABG</v>
       </c>
       <c r="X1" t="str">
         <v>Values</v>
       </c>
       <c r="Y1" t="str">
-        <v>Answers</v>
+        <v>Questions</v>
       </c>
       <c r="Z1" t="str">
         <v>Values</v>
       </c>
       <c r="AA1" t="str">
+        <v>Answers</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="AC1" t="str">
         <v>ANSWER</v>
       </c>
     </row>
@@ -500,72 +506,78 @@
         <v>既往病史</v>
       </c>
       <c r="E2" t="str">
+        <v>Blood</v>
+      </c>
+      <c r="F2" t="str">
+        <v>血液檢查</v>
+      </c>
+      <c r="G2" t="str">
         <v>Inquiry</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>問診</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I2" t="str">
         <v>ChestI</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <v>Chest I</v>
       </c>
-      <c r="I2" t="str">
+      <c r="K2" t="str">
         <v>ChestA</v>
       </c>
-      <c r="J2" t="str">
+      <c r="L2" t="str">
         <v>Chest A</v>
       </c>
-      <c r="K2" t="str">
+      <c r="M2" t="str">
         <v>ChestPe</v>
       </c>
-      <c r="L2" t="str">
+      <c r="N2" t="str">
         <v>Chest Pe</v>
       </c>
-      <c r="M2" t="str">
+      <c r="O2" t="str">
         <v>ChestPa</v>
       </c>
-      <c r="N2" t="str">
+      <c r="P2" t="str">
         <v>Chest Pa</v>
       </c>
-      <c r="O2" t="str">
+      <c r="Q2" t="str">
         <v>ChestCT</v>
       </c>
-      <c r="P2" t="str">
+      <c r="R2" t="str">
         <v>Chest Xray and CT</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="S2" t="str">
         <v>RBC</v>
       </c>
-      <c r="R2" t="str">
+      <c r="T2" t="str">
         <v>紅血球</v>
       </c>
-      <c r="S2" t="str">
+      <c r="U2" t="str">
         <v>Density</v>
       </c>
-      <c r="T2" t="str">
+      <c r="V2" t="str">
         <v>比重</v>
       </c>
-      <c r="U2" t="str">
+      <c r="W2" t="str">
         <v>PH</v>
       </c>
-      <c r="V2" t="str">
+      <c r="X2" t="str">
         <v>pH</v>
       </c>
-      <c r="W2" t="str">
+      <c r="Y2" t="str">
         <v>Q1</v>
       </c>
-      <c r="X2" t="str">
+      <c r="Z2" t="str">
         <v>Q1</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="AA2" t="str">
         <v>A1</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="AB2" t="str">
         <v>A1</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="AC2" t="str">
         <v>請選擇</v>
       </c>
     </row>
@@ -583,72 +595,78 @@
         <v>家族病史</v>
       </c>
       <c r="E3" t="str">
+        <v>Urine</v>
+      </c>
+      <c r="F3" t="str">
+        <v>尿液檢查</v>
+      </c>
+      <c r="G3" t="str">
         <v>Inspection</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <v>視診</v>
       </c>
-      <c r="G3" t="str">
+      <c r="I3" t="str">
         <v>AbdomenI</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <v>Abdomen I</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <v>AbdomenA</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <v>Abdomen A</v>
       </c>
-      <c r="K3" t="str">
+      <c r="M3" t="str">
         <v>AbdomenPe</v>
       </c>
-      <c r="L3" t="str">
+      <c r="N3" t="str">
         <v>Abdomen Pe</v>
       </c>
-      <c r="M3" t="str">
+      <c r="O3" t="str">
         <v>AbdomenPa</v>
       </c>
-      <c r="N3" t="str">
+      <c r="P3" t="str">
         <v>Abdomen Pa</v>
       </c>
-      <c r="O3" t="str">
+      <c r="Q3" t="str">
         <v>AbdSono</v>
       </c>
-      <c r="P3" t="str">
+      <c r="R3" t="str">
         <v>腹部超音波</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="S3" t="str">
         <v>WBC</v>
       </c>
-      <c r="R3" t="str">
+      <c r="T3" t="str">
         <v>白血球</v>
       </c>
-      <c r="S3" t="str">
+      <c r="U3" t="str">
         <v>Color</v>
       </c>
-      <c r="T3" t="str">
+      <c r="V3" t="str">
         <v>顏色</v>
       </c>
-      <c r="U3" t="str">
+      <c r="W3" t="str">
         <v>PCO2</v>
       </c>
-      <c r="V3" t="str">
+      <c r="X3" t="str">
         <v>CO2 Partial Pressure</v>
       </c>
-      <c r="W3" t="str">
+      <c r="Y3" t="str">
         <v>Q2</v>
       </c>
-      <c r="X3" t="str">
+      <c r="Z3" t="str">
         <v>Q2</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="AA3" t="str">
         <v>A2</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AB3" t="str">
         <v>A2</v>
       </c>
-      <c r="AA3" t="str">
+      <c r="AC3" t="str">
         <v>Diuretics</v>
       </c>
     </row>
@@ -666,54 +684,60 @@
         <v>旅遊史</v>
       </c>
       <c r="E4" t="str">
+        <v>Radiology</v>
+      </c>
+      <c r="F4" t="str">
+        <v>放射檢查</v>
+      </c>
+      <c r="G4" t="str">
         <v>Auscultation</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <v>聽診</v>
       </c>
-      <c r="G4" t="str">
+      <c r="I4" t="str">
         <v>ExtremetiesI</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <v>Extremeties I</v>
       </c>
-      <c r="O4" t="str">
+      <c r="Q4" t="str">
         <v>ThySono</v>
       </c>
-      <c r="P4" t="str">
+      <c r="R4" t="str">
         <v>甲狀腺超音波</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="S4" t="str">
         <v>Platelet</v>
       </c>
-      <c r="R4" t="str">
+      <c r="T4" t="str">
         <v>血小板</v>
       </c>
-      <c r="S4" t="str">
+      <c r="U4" t="str">
         <v>PH</v>
       </c>
-      <c r="T4" t="str">
+      <c r="V4" t="str">
         <v>pH</v>
       </c>
-      <c r="U4" t="str">
+      <c r="W4" t="str">
         <v>PO2</v>
       </c>
-      <c r="V4" t="str">
+      <c r="X4" t="str">
         <v>Oxygen Partial Pressure</v>
       </c>
-      <c r="W4" t="str">
+      <c r="Y4" t="str">
         <v>Q3</v>
       </c>
-      <c r="X4" t="str">
+      <c r="Z4" t="str">
         <v>Q3</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="AA4" t="str">
         <v>A3</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="AB4" t="str">
         <v>A3</v>
       </c>
-      <c r="AA4" t="str">
+      <c r="AC4" t="str">
         <v>Hemorrhage</v>
       </c>
     </row>
@@ -731,54 +755,60 @@
         <v>過敏史</v>
       </c>
       <c r="E5" t="str">
+        <v>ABG</v>
+      </c>
+      <c r="F5" t="str">
+        <v>動脈氣體分析</v>
+      </c>
+      <c r="G5" t="str">
         <v>Percussion</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <v>扣診</v>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" t="str">
         <v>HEENTI</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <v>HEENT I</v>
       </c>
-      <c r="O5" t="str">
+      <c r="Q5" t="str">
         <v>HeadCT</v>
       </c>
-      <c r="P5" t="str">
+      <c r="R5" t="str">
         <v>CT Scan of head</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="S5" t="str">
         <v>Na</v>
       </c>
-      <c r="R5" t="str">
+      <c r="T5" t="str">
         <v>Na</v>
       </c>
-      <c r="S5" t="str">
+      <c r="U5" t="str">
         <v>Glucose</v>
       </c>
-      <c r="T5" t="str">
+      <c r="V5" t="str">
         <v>尿糖</v>
       </c>
-      <c r="U5" t="str">
+      <c r="W5" t="str">
         <v>SO2</v>
       </c>
-      <c r="V5" t="str">
+      <c r="X5" t="str">
         <v>Oxygen Saturation</v>
       </c>
-      <c r="W5" t="str">
+      <c r="Y5" t="str">
         <v>Q4</v>
       </c>
-      <c r="X5" t="str">
+      <c r="Z5" t="str">
         <v>Q4</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="AA5" t="str">
         <v>A4</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AB5" t="str">
         <v>A4</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AC5" t="str">
         <v>GILoss</v>
       </c>
     </row>
@@ -796,48 +826,54 @@
         <v>藥物史</v>
       </c>
       <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v>Palpation</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <v>觸診</v>
       </c>
-      <c r="G6" t="str">
+      <c r="I6" t="str">
         <v>GenitourinaryI</v>
       </c>
-      <c r="H6" t="str">
+      <c r="J6" t="str">
         <v>Genitourinary I</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="S6" t="str">
         <v>K</v>
       </c>
-      <c r="R6" t="str">
+      <c r="T6" t="str">
         <v>K</v>
       </c>
-      <c r="S6" t="str">
+      <c r="U6" t="str">
         <v>Protein</v>
       </c>
-      <c r="T6" t="str">
+      <c r="V6" t="str">
         <v>尿蛋白</v>
       </c>
-      <c r="U6" t="str">
+      <c r="W6" t="str">
         <v>HCO3</v>
       </c>
-      <c r="V6" t="str">
+      <c r="X6" t="str">
         <v>Bicarbonate</v>
       </c>
-      <c r="W6" t="str">
+      <c r="Y6" t="str">
         <v>Q5</v>
       </c>
-      <c r="X6" t="str">
+      <c r="Z6" t="str">
         <v>Q5</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="AA6" t="str">
         <v>A5</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="AB6" t="str">
         <v>A5</v>
       </c>
-      <c r="AA6" t="str">
+      <c r="AC6" t="str">
         <v>SIADH</v>
       </c>
     </row>
@@ -854,37 +890,43 @@
       <c r="D7" t="str">
         <v>Location</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
         <v>Cl</v>
       </c>
-      <c r="R7" t="str">
+      <c r="T7" t="str">
         <v>Cl</v>
       </c>
-      <c r="S7" t="str">
+      <c r="U7" t="str">
         <v>OB</v>
       </c>
-      <c r="T7" t="str">
+      <c r="V7" t="str">
         <v>尿潛血</v>
       </c>
-      <c r="U7" t="str">
+      <c r="W7" t="str">
         <v>BE</v>
       </c>
-      <c r="V7" t="str">
+      <c r="X7" t="str">
         <v>Base Excess</v>
       </c>
-      <c r="W7" t="str">
+      <c r="Y7" t="str">
         <v>Q6</v>
       </c>
-      <c r="X7" t="str">
+      <c r="Z7" t="str">
         <v>Q6</v>
       </c>
-      <c r="Y7" t="str">
+      <c r="AA7" t="str">
         <v>A6</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="AB7" t="str">
         <v>A6</v>
       </c>
-      <c r="AA7" t="str">
+      <c r="AC7" t="str">
         <v>Hypothyroidism</v>
       </c>
     </row>
@@ -901,31 +943,37 @@
       <c r="D8" t="str">
         <v>Quality</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
         <v>Mg</v>
       </c>
-      <c r="R8" t="str">
+      <c r="T8" t="str">
         <v>Mg</v>
       </c>
-      <c r="S8" t="str">
+      <c r="U8" t="str">
         <v>RBC</v>
       </c>
-      <c r="T8" t="str">
+      <c r="V8" t="str">
         <v>紅血球</v>
       </c>
-      <c r="W8" t="str">
+      <c r="Y8" t="str">
         <v>Q7</v>
       </c>
-      <c r="X8" t="str">
+      <c r="Z8" t="str">
         <v>Q7</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="AA8" t="str">
         <v>A7</v>
       </c>
-      <c r="Z8" t="str">
+      <c r="AB8" t="str">
         <v>A7</v>
       </c>
-      <c r="AA8" t="str">
+      <c r="AC8" t="str">
         <v>GlucocorticoidDeficiency</v>
       </c>
     </row>
@@ -942,31 +990,37 @@
       <c r="D9" t="str">
         <v>Quantity</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
         <v>Ca</v>
       </c>
-      <c r="R9" t="str">
+      <c r="T9" t="str">
         <v>Ca</v>
       </c>
-      <c r="S9" t="str">
+      <c r="U9" t="str">
         <v>WBC</v>
       </c>
-      <c r="T9" t="str">
+      <c r="V9" t="str">
         <v>白血球</v>
       </c>
-      <c r="W9" t="str">
+      <c r="Y9" t="str">
         <v>Q8</v>
       </c>
-      <c r="X9" t="str">
+      <c r="Z9" t="str">
         <v>Q8</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="AA9" t="str">
         <v>A8</v>
       </c>
-      <c r="Z9" t="str">
+      <c r="AB9" t="str">
         <v>A8</v>
       </c>
-      <c r="AA9" t="str">
+      <c r="AC9" t="str">
         <v>PsychogenicPolydipsia</v>
       </c>
     </row>
@@ -983,31 +1037,37 @@
       <c r="D10" t="str">
         <v>Onset mode</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
         <v>Osmolality</v>
       </c>
-      <c r="R10" t="str">
+      <c r="T10" t="str">
         <v>Plasma Osmolality</v>
       </c>
-      <c r="S10" t="str">
+      <c r="U10" t="str">
         <v>Na</v>
       </c>
-      <c r="T10" t="str">
+      <c r="V10" t="str">
         <v>Na</v>
       </c>
-      <c r="W10" t="str">
+      <c r="Y10" t="str">
         <v>Q9</v>
       </c>
-      <c r="X10" t="str">
+      <c r="Z10" t="str">
         <v>Q9</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="AA10" t="str">
         <v>A9</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="AB10" t="str">
         <v>A9</v>
       </c>
-      <c r="AA10" t="str">
+      <c r="AC10" t="str">
         <v>LowSolute</v>
       </c>
     </row>
@@ -1024,31 +1084,37 @@
       <c r="D11" t="str">
         <v>Precipitating Factors</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
         <v>BUN</v>
       </c>
-      <c r="R11" t="str">
+      <c r="T11" t="str">
         <v>BUN</v>
       </c>
-      <c r="S11" t="str">
+      <c r="U11" t="str">
         <v>K</v>
       </c>
-      <c r="T11" t="str">
+      <c r="V11" t="str">
         <v>K</v>
       </c>
-      <c r="W11" t="str">
+      <c r="Y11" t="str">
         <v>Q10</v>
       </c>
-      <c r="X11" t="str">
+      <c r="Z11" t="str">
         <v>Q10</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="AA11" t="str">
         <v>A10</v>
       </c>
-      <c r="Z11" t="str">
+      <c r="AB11" t="str">
         <v>A10</v>
       </c>
-      <c r="AA11" t="str">
+      <c r="AC11" t="str">
         <v>ChronicHeartFailure</v>
       </c>
     </row>
@@ -1065,11 +1131,11 @@
       <c r="D12" t="str">
         <v>Exaggerating Factors</v>
       </c>
-      <c r="Q12" t="str">
-        <v>Creatinine</v>
-      </c>
-      <c r="R12" t="str">
-        <v>Creatinine</v>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
       </c>
       <c r="S12" t="str">
         <v>Creatinine</v>
@@ -1077,19 +1143,25 @@
       <c r="T12" t="str">
         <v>Creatinine</v>
       </c>
-      <c r="W12" t="str">
+      <c r="U12" t="str">
+        <v>Creatinine</v>
+      </c>
+      <c r="V12" t="str">
+        <v>Creatinine</v>
+      </c>
+      <c r="Y12" t="str">
         <v>Q11</v>
       </c>
-      <c r="X12" t="str">
+      <c r="Z12" t="str">
         <v>Q11</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="AA12" t="str">
         <v>A11</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="AB12" t="str">
         <v>A11</v>
       </c>
-      <c r="AA12" t="str">
+      <c r="AC12" t="str">
         <v>Cirrhosis</v>
       </c>
     </row>
@@ -1106,31 +1178,37 @@
       <c r="D13" t="str">
         <v>Relieving Factors</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
         <v>EGFR</v>
       </c>
-      <c r="R13" t="str">
+      <c r="T13" t="str">
         <v>eGFR</v>
       </c>
-      <c r="S13" t="str">
+      <c r="U13" t="str">
         <v>Osmolality</v>
       </c>
-      <c r="T13" t="str">
+      <c r="V13" t="str">
         <v>Urine Osmolality</v>
       </c>
-      <c r="W13" t="str">
+      <c r="Y13" t="str">
         <v>Q12</v>
       </c>
-      <c r="X13" t="str">
+      <c r="Z13" t="str">
         <v>Q12</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="AA13" t="str">
         <v>A12</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="AB13" t="str">
         <v>A12</v>
       </c>
-      <c r="AA13" t="str">
+      <c r="AC13" t="str">
         <v>NephroticSyndrome</v>
       </c>
     </row>
@@ -1147,31 +1225,37 @@
       <c r="D14" t="str">
         <v>Accompanying Symptoms</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
         <v>TSH</v>
       </c>
-      <c r="R14" t="str">
+      <c r="T14" t="str">
         <v>TSH</v>
       </c>
-      <c r="S14" t="str">
+      <c r="U14" t="str">
         <v>Gravity</v>
       </c>
-      <c r="T14" t="str">
+      <c r="V14" t="str">
         <v>Urine Specific Gravity</v>
       </c>
-      <c r="W14" t="str">
+      <c r="Y14" t="str">
         <v>Q13</v>
       </c>
-      <c r="X14" t="str">
+      <c r="Z14" t="str">
         <v>Q13</v>
       </c>
-      <c r="Y14" t="str">
+      <c r="AA14" t="str">
         <v>A13</v>
       </c>
-      <c r="Z14" t="str">
+      <c r="AB14" t="str">
         <v>A13</v>
       </c>
-      <c r="AA14" t="str">
+      <c r="AC14" t="str">
         <v>AdvancedRenalFailure</v>
       </c>
     </row>
@@ -1182,192 +1266,646 @@
       <c r="B15" t="str">
         <v>60</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
         <v>T3</v>
       </c>
-      <c r="R15" t="str">
+      <c r="T15" t="str">
         <v>T3</v>
       </c>
-      <c r="W15" t="str">
+      <c r="Y15" t="str">
         <v>Q14</v>
       </c>
-      <c r="X15" t="str">
+      <c r="Z15" t="str">
         <v>Q14</v>
       </c>
-      <c r="Y15" t="str">
+      <c r="AA15" t="str">
         <v>A14</v>
       </c>
-      <c r="Z15" t="str">
+      <c r="AB15" t="str">
         <v>A14</v>
       </c>
-      <c r="AA15" t="str">
+      <c r="AC15" t="str">
         <v>ResetOsmostat</v>
       </c>
     </row>
     <row r="16">
-      <c r="Q16" t="str">
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
         <v>T4</v>
       </c>
-      <c r="R16" t="str">
+      <c r="T16" t="str">
         <v>T4</v>
       </c>
-      <c r="W16" t="str">
+      <c r="Y16" t="str">
         <v>Q15</v>
       </c>
-      <c r="X16" t="str">
+      <c r="Z16" t="str">
         <v>Q15</v>
       </c>
-      <c r="Y16" t="str">
+      <c r="AA16" t="str">
         <v>A15</v>
       </c>
-      <c r="Z16" t="str">
+      <c r="AB16" t="str">
         <v>A15</v>
       </c>
-      <c r="AA16" t="str">
+      <c r="AC16" t="str">
         <v>PrimaryPolydipsia</v>
       </c>
     </row>
     <row r="17">
-      <c r="Q17" t="str">
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
         <v>ACTH</v>
       </c>
-      <c r="R17" t="str">
+      <c r="T17" t="str">
         <v>ACTH</v>
       </c>
-      <c r="W17" t="str">
+      <c r="Y17" t="str">
         <v>Q16</v>
       </c>
-      <c r="X17" t="str">
+      <c r="Z17" t="str">
         <v>Q16</v>
       </c>
-      <c r="Y17" t="str">
+      <c r="AA17" t="str">
         <v>A16</v>
       </c>
-      <c r="Z17" t="str">
+      <c r="AB17" t="str">
         <v>A16</v>
       </c>
-      <c r="AA17" t="str">
+      <c r="AC17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="Q18" t="str">
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
         <v>GOT</v>
       </c>
-      <c r="R18" t="str">
+      <c r="T18" t="str">
         <v>GOT</v>
       </c>
-      <c r="W18" t="str">
+      <c r="Y18" t="str">
         <v>Q17</v>
       </c>
-      <c r="X18" t="str">
+      <c r="Z18" t="str">
         <v>Q17</v>
       </c>
-      <c r="Y18" t="str">
+      <c r="AA18" t="str">
         <v>A17</v>
       </c>
-      <c r="Z18" t="str">
+      <c r="AB18" t="str">
         <v>A17</v>
       </c>
-      <c r="AA18" t="str">
+      <c r="AC18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="Q19" t="str">
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
         <v>GPT</v>
       </c>
-      <c r="R19" t="str">
+      <c r="T19" t="str">
         <v>GPT</v>
       </c>
-      <c r="W19" t="str">
+      <c r="Y19" t="str">
         <v>Q18</v>
       </c>
-      <c r="X19" t="str">
+      <c r="Z19" t="str">
         <v>Q18</v>
       </c>
-      <c r="Y19" t="str">
+      <c r="AA19" t="str">
         <v>A18</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="AB19" t="str">
         <v>A18</v>
       </c>
-      <c r="AA19" t="str">
+      <c r="AC19" t="str">
         <v>IMAGES</v>
       </c>
     </row>
     <row r="20">
-      <c r="Q20" t="str">
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
         <v>Protein</v>
       </c>
-      <c r="R20" t="str">
+      <c r="T20" t="str">
         <v>血蛋白</v>
       </c>
-      <c r="W20" t="str">
+      <c r="Y20" t="str">
         <v>Q19</v>
       </c>
-      <c r="X20" t="str">
+      <c r="Z20" t="str">
         <v>Q19</v>
       </c>
-      <c r="Y20" t="str">
+      <c r="AA20" t="str">
         <v>A19</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="AB20" t="str">
         <v>A19</v>
       </c>
-      <c r="AA20" t="str">
+      <c r="AC20" t="str">
         <v>請選擇</v>
       </c>
     </row>
     <row r="21">
-      <c r="Q21" t="str">
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
         <v>Sugar</v>
       </c>
-      <c r="R21" t="str">
+      <c r="T21" t="str">
         <v>血糖</v>
       </c>
-      <c r="W21" t="str">
+      <c r="Y21" t="str">
         <v>Q20</v>
       </c>
-      <c r="X21" t="str">
+      <c r="Z21" t="str">
         <v>Q20</v>
       </c>
-      <c r="Y21" t="str">
+      <c r="AA21" t="str">
         <v>A20</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="AB21" t="str">
         <v>A20</v>
       </c>
-      <c r="AA21" t="str">
+      <c r="AC21" t="str">
         <v>old_man1.png</v>
       </c>
     </row>
     <row r="22">
-      <c r="Q22" t="str">
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
         <v>TBIL</v>
       </c>
-      <c r="R22" t="str">
+      <c r="T22" t="str">
         <v>總膽紅素</v>
       </c>
     </row>
     <row r="23">
-      <c r="Q23" t="str">
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
         <v>HBA1C</v>
       </c>
-      <c r="R23" t="str">
+      <c r="T23" t="str">
         <v>糖化血色素</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="str">
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="str">
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="str">
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="str">
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="str">
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC73"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,72 +1924,78 @@
         <v>Values</v>
       </c>
       <c r="E1" t="str">
-        <v>PE</v>
+        <v>Examination</v>
       </c>
       <c r="F1" t="str">
         <v>Values</v>
       </c>
       <c r="G1" t="str">
-        <v>Questions</v>
+        <v>PE</v>
       </c>
       <c r="H1" t="str">
         <v>Values</v>
       </c>
       <c r="I1" t="str">
-        <v>Answers</v>
+        <v>Questions</v>
       </c>
       <c r="J1" t="str">
         <v>Values</v>
       </c>
       <c r="K1" t="str">
-        <v>Inspection</v>
+        <v>Answers</v>
       </c>
       <c r="L1" t="str">
         <v>Values</v>
       </c>
       <c r="M1" t="str">
-        <v>Auscultation</v>
+        <v>Inspection</v>
       </c>
       <c r="N1" t="str">
         <v>Values</v>
       </c>
       <c r="O1" t="str">
-        <v>Percussion</v>
+        <v>Auscultation</v>
       </c>
       <c r="P1" t="str">
         <v>Values</v>
       </c>
       <c r="Q1" t="str">
-        <v>Palpation</v>
+        <v>Percussion</v>
       </c>
       <c r="R1" t="str">
         <v>Values</v>
       </c>
       <c r="S1" t="str">
-        <v>Radiology</v>
+        <v>Palpation</v>
       </c>
       <c r="T1" t="str">
         <v>Values</v>
       </c>
       <c r="U1" t="str">
-        <v>Blood</v>
+        <v>Radiology</v>
       </c>
       <c r="V1" t="str">
         <v>Values</v>
       </c>
       <c r="W1" t="str">
-        <v>Urine</v>
+        <v>Blood</v>
       </c>
       <c r="X1" t="str">
         <v>Values</v>
       </c>
       <c r="Y1" t="str">
-        <v>ABG</v>
+        <v>Urine</v>
       </c>
       <c r="Z1" t="str">
         <v>Values</v>
       </c>
       <c r="AA1" t="str">
+        <v>ABG</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Values</v>
+      </c>
+      <c r="AC1" t="str">
         <v>ANSWER</v>
       </c>
     </row>
@@ -1475,72 +2019,78 @@
 110/06心導管 (雙和) Bokey 1# (自行停藥一個月)</v>
       </c>
       <c r="E2" t="str">
+        <v>Blood</v>
+      </c>
+      <c r="F2" t="str">
+        <v>血液檢查</v>
+      </c>
+      <c r="G2" t="str">
         <v>Inquiry</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>問診</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Q1</v>
-      </c>
-      <c r="H2" t="str">
-        <v>今天哪裡不舒服？</v>
       </c>
       <c r="I2" t="str">
         <v>Q1</v>
       </c>
       <c r="J2" t="str">
+        <v>今天哪裡不舒服？</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Q1</v>
+      </c>
+      <c r="L2" t="str">
         <v>疲倦、下背痛</v>
       </c>
-      <c r="K2" t="str">
+      <c r="M2" t="str">
         <v>ChestI</v>
-      </c>
-      <c r="L2" t="str">
-        <v>No significant findings</v>
-      </c>
-      <c r="M2" t="str">
-        <v>ChestA</v>
       </c>
       <c r="N2" t="str">
         <v>No significant findings</v>
       </c>
       <c r="O2" t="str">
-        <v>ChestPe</v>
+        <v>ChestA</v>
       </c>
       <c r="P2" t="str">
         <v>No significant findings</v>
       </c>
       <c r="Q2" t="str">
-        <v>ChestPa</v>
+        <v>ChestPe</v>
       </c>
       <c r="R2" t="str">
         <v>No significant findings</v>
       </c>
       <c r="S2" t="str">
+        <v>ChestPa</v>
+      </c>
+      <c r="T2" t="str">
+        <v>No significant findings</v>
+      </c>
+      <c r="U2" t="str">
         <v>ChestCT</v>
       </c>
-      <c r="T2" t="str">
+      <c r="V2" t="str">
         <v>Chest Xray and CT</v>
       </c>
-      <c r="U2" t="str">
+      <c r="W2" t="str">
         <v>RBC</v>
       </c>
-      <c r="V2" t="str">
+      <c r="X2" t="str">
         <v>3.45</v>
       </c>
-      <c r="W2" t="str">
+      <c r="Y2" t="str">
         <v>Density</v>
       </c>
-      <c r="X2" t="str">
+      <c r="Z2" t="str">
         <v>1.01</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="AA2" t="str">
         <v>PH</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="AB2" t="str">
         <v>7.4</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="AC2" t="str">
         <v>請選擇</v>
       </c>
     </row>
@@ -1558,72 +2108,78 @@
         <v>Nil</v>
       </c>
       <c r="E3" t="str">
+        <v>Urine</v>
+      </c>
+      <c r="F3" t="str">
+        <v>尿液檢查</v>
+      </c>
+      <c r="G3" t="str">
         <v>Inspection</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <v>視診</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Q2</v>
-      </c>
-      <c r="H3" t="str">
-        <v>多久了？</v>
       </c>
       <c r="I3" t="str">
         <v>Q2</v>
       </c>
       <c r="J3" t="str">
+        <v>多久了？</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="L3" t="str">
         <v>一個禮拜了</v>
       </c>
-      <c r="K3" t="str">
+      <c r="M3" t="str">
         <v>AbdomenI</v>
-      </c>
-      <c r="L3" t="str">
-        <v>No significant findings</v>
-      </c>
-      <c r="M3" t="str">
-        <v>AbdomenA</v>
       </c>
       <c r="N3" t="str">
         <v>No significant findings</v>
       </c>
       <c r="O3" t="str">
-        <v>AbdomenPe</v>
+        <v>AbdomenA</v>
       </c>
       <c r="P3" t="str">
         <v>No significant findings</v>
       </c>
       <c r="Q3" t="str">
-        <v>AbdomenPa</v>
+        <v>AbdomenPe</v>
       </c>
       <c r="R3" t="str">
         <v>No significant findings</v>
       </c>
       <c r="S3" t="str">
-        <v>AbdSono</v>
+        <v>AbdomenPa</v>
       </c>
       <c r="T3" t="str">
         <v>No significant findings</v>
       </c>
       <c r="U3" t="str">
+        <v>AbdSono</v>
+      </c>
+      <c r="V3" t="str">
+        <v>No significant findings</v>
+      </c>
+      <c r="W3" t="str">
         <v>WBC</v>
       </c>
-      <c r="V3" t="str">
+      <c r="X3" t="str">
         <v>5</v>
       </c>
-      <c r="W3" t="str">
+      <c r="Y3" t="str">
         <v>Color</v>
       </c>
-      <c r="X3" t="str">
+      <c r="Z3" t="str">
         <v>Yellow</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="AA3" t="str">
         <v>PCO2</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AB3" t="str">
         <v>40</v>
       </c>
-      <c r="AA3" t="str">
+      <c r="AC3" t="str">
         <v>Diuretics</v>
       </c>
     </row>
@@ -1641,54 +2197,60 @@
         <v>Nil</v>
       </c>
       <c r="E4" t="str">
+        <v>Radiology</v>
+      </c>
+      <c r="F4" t="str">
+        <v>放射檢查</v>
+      </c>
+      <c r="G4" t="str">
         <v>Auscultation</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <v>聽診</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Q3</v>
-      </c>
-      <c r="H4" t="str">
-        <v>怎麼個不舒服法？</v>
       </c>
       <c r="I4" t="str">
         <v>Q3</v>
       </c>
       <c r="J4" t="str">
+        <v>怎麼個不舒服法？</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="L4" t="str">
         <v>之前在公車上摔倒後輩就一直痛到現在，也有點累累的感覺</v>
       </c>
-      <c r="K4" t="str">
+      <c r="M4" t="str">
         <v>ExtremetiesI</v>
       </c>
-      <c r="L4" t="str">
+      <c r="N4" t="str">
         <v>No significant findings</v>
       </c>
-      <c r="S4" t="str">
+      <c r="U4" t="str">
         <v>ThySono</v>
       </c>
-      <c r="T4" t="str">
+      <c r="V4" t="str">
         <v>No significant findings</v>
       </c>
-      <c r="U4" t="str">
+      <c r="W4" t="str">
         <v>Platelet</v>
       </c>
-      <c r="V4" t="str">
+      <c r="X4" t="str">
         <v>300</v>
       </c>
-      <c r="W4" t="str">
+      <c r="Y4" t="str">
         <v>Clarity/turbidity</v>
       </c>
-      <c r="X4" t="str">
+      <c r="Z4" t="str">
         <v>Clear</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="AA4" t="str">
         <v>PO2</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="AB4" t="str">
         <v>90</v>
       </c>
-      <c r="AA4" t="str">
+      <c r="AC4" t="str">
         <v>Hemorrhage</v>
       </c>
     </row>
@@ -1706,54 +2268,60 @@
         <v>Nil</v>
       </c>
       <c r="E5" t="str">
+        <v>ABG</v>
+      </c>
+      <c r="F5" t="str">
+        <v>動脈氣體分析</v>
+      </c>
+      <c r="G5" t="str">
         <v>Percussion</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <v>扣診</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Q4</v>
-      </c>
-      <c r="H5" t="str">
-        <v>有怎麼樣會緩解嗎？</v>
       </c>
       <c r="I5" t="str">
         <v>Q4</v>
       </c>
       <c r="J5" t="str">
+        <v>有怎麼樣會緩解嗎？</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="L5" t="str">
         <v>背痛的部分不要動就還好；累累的部分就一直累累的</v>
       </c>
-      <c r="K5" t="str">
+      <c r="M5" t="str">
         <v>HEENTI</v>
       </c>
-      <c r="L5" t="str">
+      <c r="N5" t="str">
         <v>No significant findings</v>
       </c>
-      <c r="S5" t="str">
+      <c r="U5" t="str">
         <v>HeadCT</v>
       </c>
-      <c r="T5" t="str">
+      <c r="V5" t="str">
         <v>No significant findings</v>
       </c>
-      <c r="U5" t="str">
+      <c r="W5" t="str">
         <v>Na</v>
       </c>
-      <c r="V5" t="str">
+      <c r="X5" t="str">
         <v>112</v>
       </c>
-      <c r="W5" t="str">
+      <c r="Y5" t="str">
         <v>PH</v>
       </c>
-      <c r="X5" t="str">
+      <c r="Z5" t="str">
         <v>5</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="AA5" t="str">
         <v>SO2</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AB5" t="str">
         <v>96</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AC5" t="str">
         <v>GILoss</v>
       </c>
     </row>
@@ -1771,48 +2339,54 @@
         <v>Hypertension, Coronary heart disease and gout medication</v>
       </c>
       <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v>Palpation</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <v>觸診</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Q5</v>
-      </c>
-      <c r="H6" t="str">
-        <v>有怎麼樣會加劇嗎？</v>
       </c>
       <c r="I6" t="str">
         <v>Q5</v>
       </c>
       <c r="J6" t="str">
+        <v>有怎麼樣會加劇嗎？</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="L6" t="str">
         <v>背痛的部分一動就會痛，幅度越大越痛；累累的部分就一直累累的</v>
       </c>
-      <c r="K6" t="str">
+      <c r="M6" t="str">
         <v>GenitourinaryI</v>
       </c>
-      <c r="L6" t="str">
+      <c r="N6" t="str">
         <v>No significant findings</v>
       </c>
-      <c r="U6" t="str">
+      <c r="W6" t="str">
         <v>K</v>
       </c>
-      <c r="V6" t="str">
+      <c r="X6" t="str">
         <v>5.7</v>
       </c>
-      <c r="W6" t="str">
+      <c r="Y6" t="str">
         <v>Glucose</v>
       </c>
-      <c r="X6" t="str">
+      <c r="Z6" t="str">
         <v>100</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="AA6" t="str">
         <v>HCO3</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="AB6" t="str">
         <v>24</v>
       </c>
-      <c r="AA6" t="str">
+      <c r="AC6" t="str">
         <v>SIADH</v>
       </c>
     </row>
@@ -1829,37 +2403,43 @@
       <c r="D7" t="str">
         <v>Nil</v>
       </c>
-      <c r="G7" t="str">
-        <v>Q6</v>
-      </c>
-      <c r="H7" t="str">
-        <v>還有其他症狀嗎？</v>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
       </c>
       <c r="I7" t="str">
         <v>Q6</v>
       </c>
       <c r="J7" t="str">
+        <v>還有其他症狀嗎？</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Q6</v>
+      </c>
+      <c r="L7" t="str">
         <v>沒有</v>
       </c>
-      <c r="U7" t="str">
+      <c r="W7" t="str">
         <v>Cl</v>
-      </c>
-      <c r="V7" t="str">
-        <v>100</v>
-      </c>
-      <c r="W7" t="str">
-        <v>Protein</v>
       </c>
       <c r="X7" t="str">
         <v>100</v>
       </c>
       <c r="Y7" t="str">
+        <v>Protein</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>100</v>
+      </c>
+      <c r="AA7" t="str">
         <v>BE</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="AB7" t="str">
         <v>0</v>
       </c>
-      <c r="AA7" t="str">
+      <c r="AC7" t="str">
         <v>Hypothyroidism</v>
       </c>
     </row>
@@ -1876,19 +2456,25 @@
       <c r="D8" t="str">
         <v>Nil</v>
       </c>
-      <c r="U8" t="str">
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
         <v>Osmolarity</v>
       </c>
-      <c r="V8" t="str">
+      <c r="X8" t="str">
         <v>248</v>
       </c>
-      <c r="W8" t="str">
+      <c r="Y8" t="str">
         <v>OB</v>
       </c>
-      <c r="X8" t="str">
+      <c r="Z8" t="str">
         <v>Negative</v>
       </c>
-      <c r="AA8" t="str">
+      <c r="AC8" t="str">
         <v>GlucocorticoidDeficiency</v>
       </c>
     </row>
@@ -1905,19 +2491,25 @@
       <c r="D9" t="str">
         <v>Nil</v>
       </c>
-      <c r="U9" t="str">
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
         <v>BUN</v>
       </c>
-      <c r="V9" t="str">
+      <c r="X9" t="str">
         <v>36</v>
       </c>
-      <c r="W9" t="str">
+      <c r="Y9" t="str">
         <v>RBC</v>
       </c>
-      <c r="X9" t="str">
+      <c r="Z9" t="str">
         <v>Negative</v>
       </c>
-      <c r="AA9" t="str">
+      <c r="AC9" t="str">
         <v>PsychogenicPolydipsia</v>
       </c>
     </row>
@@ -1934,19 +2526,25 @@
       <c r="D10" t="str">
         <v>Nil</v>
       </c>
-      <c r="U10" t="str">
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
         <v>Creatinine</v>
       </c>
-      <c r="V10" t="str">
+      <c r="X10" t="str">
         <v>1.5</v>
       </c>
-      <c r="W10" t="str">
+      <c r="Y10" t="str">
         <v>WBC</v>
       </c>
-      <c r="X10" t="str">
+      <c r="Z10" t="str">
         <v>Negative</v>
       </c>
-      <c r="AA10" t="str">
+      <c r="AC10" t="str">
         <v>LowSolute</v>
       </c>
     </row>
@@ -1963,19 +2561,25 @@
       <c r="D11" t="str">
         <v>Nil</v>
       </c>
-      <c r="U11" t="str">
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
         <v>EGFR</v>
       </c>
-      <c r="V11" t="str">
+      <c r="X11" t="str">
         <v>49.5</v>
       </c>
-      <c r="W11" t="str">
+      <c r="Y11" t="str">
         <v>Na</v>
       </c>
-      <c r="X11" t="str">
+      <c r="Z11" t="str">
         <v>66</v>
       </c>
-      <c r="AA11" t="str">
+      <c r="AC11" t="str">
         <v>ChronicHeartFailure</v>
       </c>
     </row>
@@ -1992,19 +2596,25 @@
       <c r="D12" t="str">
         <v>Nil</v>
       </c>
-      <c r="U12" t="str">
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
         <v>TSH</v>
       </c>
-      <c r="V12" t="str">
+      <c r="X12" t="str">
         <v>0.907</v>
       </c>
-      <c r="W12" t="str">
+      <c r="Y12" t="str">
         <v>K</v>
       </c>
-      <c r="X12" t="str">
+      <c r="Z12" t="str">
         <v>17.5</v>
       </c>
-      <c r="AA12" t="str">
+      <c r="AC12" t="str">
         <v>Cirrhosis</v>
       </c>
     </row>
@@ -2021,19 +2631,25 @@
       <c r="D13" t="str">
         <v>Nil</v>
       </c>
-      <c r="U13" t="str">
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
         <v>T3</v>
       </c>
-      <c r="V13" t="str">
+      <c r="X13" t="str">
         <v>120</v>
       </c>
-      <c r="W13" t="str">
+      <c r="Y13" t="str">
         <v>Creatinine</v>
       </c>
-      <c r="X13" t="str">
+      <c r="Z13" t="str">
         <v>24.2</v>
       </c>
-      <c r="AA13" t="str">
+      <c r="AC13" t="str">
         <v>NephroticSyndrome</v>
       </c>
     </row>
@@ -2050,19 +2666,25 @@
       <c r="D14" t="str">
         <v>Nil</v>
       </c>
-      <c r="U14" t="str">
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
         <v>FREET4</v>
       </c>
-      <c r="V14" t="str">
+      <c r="X14" t="str">
         <v>1.1</v>
       </c>
-      <c r="W14" t="str">
+      <c r="Y14" t="str">
         <v>Osmolarity</v>
       </c>
-      <c r="X14" t="str">
+      <c r="Z14" t="str">
         <v>237</v>
       </c>
-      <c r="AA14" t="str">
+      <c r="AC14" t="str">
         <v>AdvancedRenalFailure</v>
       </c>
     </row>
@@ -2073,67 +2695,525 @@
       <c r="B15" t="str">
         <v>60</v>
       </c>
-      <c r="U15" t="str">
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
         <v>ACTH</v>
       </c>
-      <c r="V15" t="str">
+      <c r="X15" t="str">
         <v>12.2</v>
       </c>
-      <c r="AA15" t="str">
+      <c r="AC15" t="str">
         <v>ResetOsmostat</v>
       </c>
     </row>
     <row r="16">
-      <c r="U16" t="str">
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
         <v>GOT</v>
       </c>
-      <c r="V16" t="str">
+      <c r="X16" t="str">
         <v>35</v>
       </c>
-      <c r="AA16" t="str">
+      <c r="AC16" t="str">
         <v>PrimaryPolydipsia</v>
       </c>
     </row>
     <row r="17">
-      <c r="U17" t="str">
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
         <v>GPT</v>
       </c>
-      <c r="V17" t="str">
+      <c r="X17" t="str">
         <v>30</v>
       </c>
-      <c r="AA17" t="str">
+      <c r="AC17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="U18" t="str">
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
         <v>UricAcid</v>
       </c>
-      <c r="V18" t="str">
+      <c r="X18" t="str">
         <v>3.6</v>
       </c>
-      <c r="AA18" t="str">
+      <c r="AC18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="AA19" t="str">
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="AC19" t="str">
         <v>IMAGES</v>
       </c>
     </row>
     <row r="20">
-      <c r="AA20" t="str">
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="AC20" t="str">
         <v>請選擇</v>
       </c>
     </row>
     <row r="21">
-      <c r="AA21" t="str">
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="AC21" t="str">
         <v>old_man1.png</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="str">
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="str">
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="str">
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="str">
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="str">
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC73"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/app/projects/hyponatremia/ram_db/db.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db.xlsx
@@ -521,31 +521,31 @@
         <v>ChestI</v>
       </c>
       <c r="J2" t="str">
-        <v>Chest I</v>
+        <v>胸部視診</v>
       </c>
       <c r="K2" t="str">
         <v>ChestA</v>
       </c>
       <c r="L2" t="str">
-        <v>Chest A</v>
+        <v>胸部聽診</v>
       </c>
       <c r="M2" t="str">
         <v>ChestPe</v>
       </c>
       <c r="N2" t="str">
-        <v>Chest Pe</v>
+        <v>胸部扣診</v>
       </c>
       <c r="O2" t="str">
         <v>ChestPa</v>
       </c>
       <c r="P2" t="str">
-        <v>Chest Pa</v>
+        <v>胸部觸診</v>
       </c>
       <c r="Q2" t="str">
         <v>ChestCT</v>
       </c>
       <c r="R2" t="str">
-        <v>Chest Xray and CT</v>
+        <v>胸部X光與電腦斷層</v>
       </c>
       <c r="S2" t="str">
         <v>RBC</v>
@@ -610,25 +610,25 @@
         <v>AbdomenI</v>
       </c>
       <c r="J3" t="str">
-        <v>Abdomen I</v>
+        <v>腹部視診</v>
       </c>
       <c r="K3" t="str">
         <v>AbdomenA</v>
       </c>
       <c r="L3" t="str">
-        <v>Abdomen A</v>
+        <v>腹部聽診</v>
       </c>
       <c r="M3" t="str">
         <v>AbdomenPe</v>
       </c>
       <c r="N3" t="str">
-        <v>Abdomen Pe</v>
+        <v>腹部扣診</v>
       </c>
       <c r="O3" t="str">
         <v>AbdomenPa</v>
       </c>
       <c r="P3" t="str">
-        <v>Abdomen Pa</v>
+        <v>腹部觸診</v>
       </c>
       <c r="Q3" t="str">
         <v>AbdSono</v>
@@ -652,7 +652,7 @@
         <v>PCO2</v>
       </c>
       <c r="X3" t="str">
-        <v>CO2 Partial Pressure</v>
+        <v>二氧化碳分壓 (PCO2)</v>
       </c>
       <c r="Y3" t="str">
         <v>Q2</v>
@@ -699,7 +699,25 @@
         <v>ExtremetiesI</v>
       </c>
       <c r="J4" t="str">
-        <v>Extremeties I</v>
+        <v>四肢視診</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
       </c>
       <c r="Q4" t="str">
         <v>ThySono</v>
@@ -723,7 +741,7 @@
         <v>PO2</v>
       </c>
       <c r="X4" t="str">
-        <v>Oxygen Partial Pressure</v>
+        <v>氧分壓 (PO2)</v>
       </c>
       <c r="Y4" t="str">
         <v>Q3</v>
@@ -770,19 +788,37 @@
         <v>HEENTI</v>
       </c>
       <c r="J5" t="str">
-        <v>HEENT I</v>
+        <v>頭頸視診</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
       </c>
       <c r="Q5" t="str">
         <v>HeadCT</v>
       </c>
       <c r="R5" t="str">
-        <v>CT Scan of head</v>
+        <v>頭部電腦斷層</v>
       </c>
       <c r="S5" t="str">
         <v>Na</v>
       </c>
       <c r="T5" t="str">
-        <v>Na</v>
+        <v>血鈉</v>
       </c>
       <c r="U5" t="str">
         <v>Glucose</v>
@@ -794,7 +830,7 @@
         <v>SO2</v>
       </c>
       <c r="X5" t="str">
-        <v>Oxygen Saturation</v>
+        <v>血氧飽和度 (SO2)</v>
       </c>
       <c r="Y5" t="str">
         <v>Q4</v>
@@ -841,13 +877,37 @@
         <v>GenitourinaryI</v>
       </c>
       <c r="J6" t="str">
-        <v>Genitourinary I</v>
+        <v>泌尿生殖視診</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
       </c>
       <c r="S6" t="str">
         <v>K</v>
       </c>
       <c r="T6" t="str">
-        <v>K</v>
+        <v>血鉀</v>
       </c>
       <c r="U6" t="str">
         <v>Protein</v>
@@ -859,7 +919,7 @@
         <v>HCO3</v>
       </c>
       <c r="X6" t="str">
-        <v>Bicarbonate</v>
+        <v>血液重碳酸鹽 (HCO3)</v>
       </c>
       <c r="Y6" t="str">
         <v>Q5</v>
@@ -888,19 +948,55 @@
         <v>Location</v>
       </c>
       <c r="D7" t="str">
-        <v>Location</v>
+        <v>位置</v>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
         <v/>
       </c>
       <c r="S7" t="str">
         <v>Cl</v>
       </c>
       <c r="T7" t="str">
-        <v>Cl</v>
+        <v>血氯</v>
       </c>
       <c r="U7" t="str">
         <v>OB</v>
@@ -912,7 +1008,7 @@
         <v>BE</v>
       </c>
       <c r="X7" t="str">
-        <v>Base Excess</v>
+        <v>鹼超量 (Base excess)</v>
       </c>
       <c r="Y7" t="str">
         <v>Q6</v>
@@ -941,25 +1037,67 @@
         <v>Quality</v>
       </c>
       <c r="D8" t="str">
-        <v>Quality</v>
+        <v>型態</v>
       </c>
       <c r="E8" t="str">
         <v/>
       </c>
       <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
         <v/>
       </c>
       <c r="S8" t="str">
         <v>Mg</v>
       </c>
       <c r="T8" t="str">
-        <v>Mg</v>
+        <v>血鎂</v>
       </c>
       <c r="U8" t="str">
         <v>RBC</v>
       </c>
       <c r="V8" t="str">
         <v>紅血球</v>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
       </c>
       <c r="Y8" t="str">
         <v>Q7</v>
@@ -988,25 +1126,67 @@
         <v>Quantity</v>
       </c>
       <c r="D9" t="str">
-        <v>Quantity</v>
+        <v>歷時長短</v>
       </c>
       <c r="E9" t="str">
         <v/>
       </c>
       <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
         <v/>
       </c>
       <c r="S9" t="str">
         <v>Ca</v>
       </c>
       <c r="T9" t="str">
-        <v>Ca</v>
+        <v>血鈣</v>
       </c>
       <c r="U9" t="str">
         <v>WBC</v>
       </c>
       <c r="V9" t="str">
         <v>白血球</v>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <v/>
       </c>
       <c r="Y9" t="str">
         <v>Q8</v>
@@ -1035,7 +1215,7 @@
         <v>Onset mode</v>
       </c>
       <c r="D10" t="str">
-        <v>Onset mode</v>
+        <v>發作形式</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -1043,17 +1223,59 @@
       <c r="F10" t="str">
         <v/>
       </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
       <c r="S10" t="str">
-        <v>Osmolality</v>
+        <v>Osmolarity</v>
       </c>
       <c r="T10" t="str">
-        <v>Plasma Osmolality</v>
+        <v>血漿滲透壓</v>
       </c>
       <c r="U10" t="str">
         <v>Na</v>
       </c>
       <c r="V10" t="str">
-        <v>Na</v>
+        <v>尿鈉</v>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v/>
       </c>
       <c r="Y10" t="str">
         <v>Q9</v>
@@ -1082,25 +1304,67 @@
         <v>PrecipitatingFactors</v>
       </c>
       <c r="D11" t="str">
-        <v>Precipitating Factors</v>
+        <v>情境或誘發因素</v>
       </c>
       <c r="E11" t="str">
         <v/>
       </c>
       <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
         <v/>
       </c>
       <c r="S11" t="str">
         <v>BUN</v>
       </c>
       <c r="T11" t="str">
-        <v>BUN</v>
+        <v>血液尿素氮 (BUN)</v>
       </c>
       <c r="U11" t="str">
         <v>K</v>
       </c>
       <c r="V11" t="str">
-        <v>K</v>
+        <v>尿鉀</v>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v/>
       </c>
       <c r="Y11" t="str">
         <v>Q10</v>
@@ -1129,25 +1393,67 @@
         <v>ExaggeratingFactors</v>
       </c>
       <c r="D12" t="str">
-        <v>Exaggerating Factors</v>
+        <v>加重因素</v>
       </c>
       <c r="E12" t="str">
         <v/>
       </c>
       <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
         <v/>
       </c>
       <c r="S12" t="str">
         <v>Creatinine</v>
       </c>
       <c r="T12" t="str">
-        <v>Creatinine</v>
+        <v>血液肌酸酐 (Creatinine)</v>
       </c>
       <c r="U12" t="str">
         <v>Creatinine</v>
       </c>
       <c r="V12" t="str">
-        <v>Creatinine</v>
+        <v>尿液肌酸酐 (Creatinine)</v>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v/>
       </c>
       <c r="Y12" t="str">
         <v>Q11</v>
@@ -1176,12 +1482,48 @@
         <v>RelievingFactors</v>
       </c>
       <c r="D13" t="str">
-        <v>Relieving Factors</v>
+        <v>緩解因素</v>
       </c>
       <c r="E13" t="str">
         <v/>
       </c>
       <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
         <v/>
       </c>
       <c r="S13" t="str">
@@ -1191,10 +1533,16 @@
         <v>eGFR</v>
       </c>
       <c r="U13" t="str">
-        <v>Osmolality</v>
+        <v>Osmolarity</v>
       </c>
       <c r="V13" t="str">
-        <v>Urine Osmolality</v>
+        <v>尿液滲透壓</v>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v/>
       </c>
       <c r="Y13" t="str">
         <v>Q12</v>
@@ -1223,12 +1571,48 @@
         <v>AccompanyingSymptoms</v>
       </c>
       <c r="D14" t="str">
-        <v>Accompanying Symptoms</v>
+        <v>伴隨症狀</v>
       </c>
       <c r="E14" t="str">
         <v/>
       </c>
       <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
         <v/>
       </c>
       <c r="S14" t="str">
@@ -1241,7 +1625,13 @@
         <v>Gravity</v>
       </c>
       <c r="V14" t="str">
-        <v>Urine Specific Gravity</v>
+        <v>尿液比重</v>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <v/>
       </c>
       <c r="Y14" t="str">
         <v>Q13</v>
@@ -1266,10 +1656,52 @@
       <c r="B15" t="str">
         <v>60</v>
       </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
       <c r="E15" t="str">
         <v/>
       </c>
       <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
         <v/>
       </c>
       <c r="S15" t="str">
@@ -1278,6 +1710,18 @@
       <c r="T15" t="str">
         <v>T3</v>
       </c>
+      <c r="U15" t="str">
+        <v>Clarity</v>
+      </c>
+      <c r="V15" t="str">
+        <v>Clarity/tubidity</v>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v/>
+      </c>
       <c r="Y15" t="str">
         <v>Q14</v>
       </c>
@@ -1295,10 +1739,58 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
       <c r="E16" t="str">
         <v/>
       </c>
       <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
         <v/>
       </c>
       <c r="S16" t="str">
@@ -1307,6 +1799,18 @@
       <c r="T16" t="str">
         <v>T4</v>
       </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
       <c r="Y16" t="str">
         <v>Q15</v>
       </c>
@@ -1324,10 +1828,58 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
       <c r="E17" t="str">
         <v/>
       </c>
       <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
         <v/>
       </c>
       <c r="S17" t="str">
@@ -1336,6 +1888,18 @@
       <c r="T17" t="str">
         <v>ACTH</v>
       </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
       <c r="Y17" t="str">
         <v>Q16</v>
       </c>
@@ -1353,10 +1917,58 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
       <c r="E18" t="str">
         <v/>
       </c>
       <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
         <v/>
       </c>
       <c r="S18" t="str">
@@ -1365,6 +1977,18 @@
       <c r="T18" t="str">
         <v>GOT</v>
       </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
       <c r="Y18" t="str">
         <v>Q17</v>
       </c>
@@ -1382,10 +2006,58 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
       <c r="E19" t="str">
         <v/>
       </c>
       <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
         <v/>
       </c>
       <c r="S19" t="str">
@@ -1394,6 +2066,18 @@
       <c r="T19" t="str">
         <v>GPT</v>
       </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
       <c r="Y19" t="str">
         <v>Q18</v>
       </c>
@@ -1411,10 +2095,58 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
       <c r="E20" t="str">
         <v/>
       </c>
       <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
         <v/>
       </c>
       <c r="S20" t="str">
@@ -1423,6 +2155,18 @@
       <c r="T20" t="str">
         <v>血蛋白</v>
       </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
       <c r="Y20" t="str">
         <v>Q19</v>
       </c>
@@ -1440,10 +2184,58 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
       <c r="E21" t="str">
         <v/>
       </c>
       <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
         <v/>
       </c>
       <c r="S21" t="str">
@@ -1452,6 +2244,18 @@
       <c r="T21" t="str">
         <v>血糖</v>
       </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
       <c r="Y21" t="str">
         <v>Q20</v>
       </c>
@@ -1469,10 +2273,58 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
       <c r="E22" t="str">
         <v/>
       </c>
       <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
         <v/>
       </c>
       <c r="S22" t="str">
@@ -1481,12 +2333,87 @@
       <c r="T22" t="str">
         <v>總膽紅素</v>
       </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <v/>
+      </c>
+      <c r="AC22" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
       <c r="E23" t="str">
         <v/>
       </c>
       <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
         <v/>
       </c>
       <c r="S23" t="str">
@@ -1494,6 +2421,33 @@
       </c>
       <c r="T23" t="str">
         <v>糖化血色素</v>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -2226,6 +3180,24 @@
       <c r="N4" t="str">
         <v>No significant findings</v>
       </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
       <c r="U4" t="str">
         <v>ThySono</v>
       </c>
@@ -2239,7 +3211,7 @@
         <v>300</v>
       </c>
       <c r="Y4" t="str">
-        <v>Clarity/turbidity</v>
+        <v>Clarity</v>
       </c>
       <c r="Z4" t="str">
         <v>Clear</v>
@@ -2297,6 +3269,24 @@
       <c r="N5" t="str">
         <v>No significant findings</v>
       </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
       <c r="U5" t="str">
         <v>HeadCT</v>
       </c>
@@ -2368,6 +3358,30 @@
       <c r="N6" t="str">
         <v>No significant findings</v>
       </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
       <c r="W6" t="str">
         <v>K</v>
       </c>
@@ -2409,6 +3423,12 @@
       <c r="F7" t="str">
         <v/>
       </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
       <c r="I7" t="str">
         <v>Q6</v>
       </c>
@@ -2420,6 +3440,36 @@
       </c>
       <c r="L7" t="str">
         <v>沒有</v>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
       </c>
       <c r="W7" t="str">
         <v>Cl</v>
@@ -2462,6 +3512,54 @@
       <c r="F8" t="str">
         <v/>
       </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
       <c r="W8" t="str">
         <v>Osmolarity</v>
       </c>
@@ -2473,6 +3571,12 @@
       </c>
       <c r="Z8" t="str">
         <v>Negative</v>
+      </c>
+      <c r="AA8" t="str">
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <v/>
       </c>
       <c r="AC8" t="str">
         <v>GlucocorticoidDeficiency</v>
@@ -2497,6 +3601,54 @@
       <c r="F9" t="str">
         <v/>
       </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
       <c r="W9" t="str">
         <v>BUN</v>
       </c>
@@ -2508,6 +3660,12 @@
       </c>
       <c r="Z9" t="str">
         <v>Negative</v>
+      </c>
+      <c r="AA9" t="str">
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <v/>
       </c>
       <c r="AC9" t="str">
         <v>PsychogenicPolydipsia</v>
@@ -2532,6 +3690,54 @@
       <c r="F10" t="str">
         <v/>
       </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
       <c r="W10" t="str">
         <v>Creatinine</v>
       </c>
@@ -2543,6 +3749,12 @@
       </c>
       <c r="Z10" t="str">
         <v>Negative</v>
+      </c>
+      <c r="AA10" t="str">
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <v/>
       </c>
       <c r="AC10" t="str">
         <v>LowSolute</v>
@@ -2567,6 +3779,54 @@
       <c r="F11" t="str">
         <v/>
       </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
       <c r="W11" t="str">
         <v>EGFR</v>
       </c>
@@ -2578,6 +3838,12 @@
       </c>
       <c r="Z11" t="str">
         <v>66</v>
+      </c>
+      <c r="AA11" t="str">
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <v/>
       </c>
       <c r="AC11" t="str">
         <v>ChronicHeartFailure</v>
@@ -2602,6 +3868,54 @@
       <c r="F12" t="str">
         <v/>
       </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
       <c r="W12" t="str">
         <v>TSH</v>
       </c>
@@ -2613,6 +3927,12 @@
       </c>
       <c r="Z12" t="str">
         <v>17.5</v>
+      </c>
+      <c r="AA12" t="str">
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <v/>
       </c>
       <c r="AC12" t="str">
         <v>Cirrhosis</v>
@@ -2637,6 +3957,54 @@
       <c r="F13" t="str">
         <v/>
       </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
       <c r="W13" t="str">
         <v>T3</v>
       </c>
@@ -2648,6 +4016,12 @@
       </c>
       <c r="Z13" t="str">
         <v>24.2</v>
+      </c>
+      <c r="AA13" t="str">
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <v/>
       </c>
       <c r="AC13" t="str">
         <v>NephroticSyndrome</v>
@@ -2672,6 +4046,54 @@
       <c r="F14" t="str">
         <v/>
       </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
       <c r="W14" t="str">
         <v>FREET4</v>
       </c>
@@ -2683,6 +4105,12 @@
       </c>
       <c r="Z14" t="str">
         <v>237</v>
+      </c>
+      <c r="AA14" t="str">
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <v/>
       </c>
       <c r="AC14" t="str">
         <v>AdvancedRenalFailure</v>
@@ -2695,10 +4123,64 @@
       <c r="B15" t="str">
         <v>60</v>
       </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
       <c r="E15" t="str">
         <v/>
       </c>
       <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
         <v/>
       </c>
       <c r="W15" t="str">
@@ -2707,15 +4189,87 @@
       <c r="X15" t="str">
         <v>12.2</v>
       </c>
+      <c r="Y15" t="str">
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <v/>
+      </c>
       <c r="AC15" t="str">
         <v>ResetOsmostat</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
       <c r="E16" t="str">
         <v/>
       </c>
       <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
         <v/>
       </c>
       <c r="W16" t="str">
@@ -2724,15 +4278,87 @@
       <c r="X16" t="str">
         <v>35</v>
       </c>
+      <c r="Y16" t="str">
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <v/>
+      </c>
       <c r="AC16" t="str">
         <v>PrimaryPolydipsia</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
       <c r="E17" t="str">
         <v/>
       </c>
       <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
         <v/>
       </c>
       <c r="W17" t="str">
@@ -2741,15 +4367,87 @@
       <c r="X17" t="str">
         <v>30</v>
       </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <v/>
+      </c>
       <c r="AC17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
       <c r="E18" t="str">
         <v/>
       </c>
       <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
         <v/>
       </c>
       <c r="W18" t="str">
@@ -2758,15 +4456,105 @@
       <c r="X18" t="str">
         <v>3.6</v>
       </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <v/>
+      </c>
       <c r="AC18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
       <c r="E19" t="str">
         <v/>
       </c>
       <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <v/>
+      </c>
+      <c r="AB19" t="str">
         <v/>
       </c>
       <c r="AC19" t="str">
@@ -2774,10 +4562,88 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
       <c r="E20" t="str">
         <v/>
       </c>
       <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
         <v/>
       </c>
       <c r="AC20" t="str">

--- a/src/app/projects/hyponatremia/ram_db/db.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db.xlsx
@@ -477,7 +477,7 @@
         <v>Values</v>
       </c>
       <c r="Y1" t="str">
-        <v>Questions</v>
+        <v>Inquiry</v>
       </c>
       <c r="Z1" t="str">
         <v>Values</v>
@@ -2890,7 +2890,7 @@
         <v>Values</v>
       </c>
       <c r="I1" t="str">
-        <v>Questions</v>
+        <v>Inquiry</v>
       </c>
       <c r="J1" t="str">
         <v>Values</v>
